--- a/project/菜單.xlsx
+++ b/project/菜單.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\午班\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="蛋餅" sheetId="1" r:id="rId1"/>
@@ -1466,7 +1461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1501,7 +1496,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1678,7 +1673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1688,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2918,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4173,7 +4168,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4515,7 +4510,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
